--- a/hand.xlsx
+++ b/hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthieu\Documents\Ecole\TelecomSaintEtienne\FISE2\S8\Bibliotheque_de_developpement\hand-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB2416E-4B55-43EF-86F8-E61EE5426276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4177D-61AC-4FAB-9988-D098A291AE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{87BC0737-AAFA-4063-9174-5F881CCA0B83}"/>
   </bookViews>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45,6 +45,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -61,9 +97,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -379,259 +421,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94681083-6FB2-4A7A-A80A-27BF6ABD10B2}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="F11:O22"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="15" width="2.7265625" customWidth="1"/>
     <col min="16" max="16" width="2.90625" customWidth="1"/>
-    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="17" max="26" width="3" customWidth="1"/>
+    <col min="27" max="34" width="3.26953125" customWidth="1"/>
+    <col min="35" max="40" width="3.36328125" customWidth="1"/>
+    <col min="41" max="56" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
       <c r="N9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="8"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="8"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="1"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="1"/>
+    </row>
+    <row r="17" spans="4:35" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="1"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="1"/>
+    </row>
+    <row r="18" spans="4:35" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="W18" s="1"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="4:35" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="4:35" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="4:35" x14ac:dyDescent="0.35">
       <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="4:35" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -642,6 +916,335 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="26" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="H27" s="1"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C42" s="1"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C43" s="1"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E46" s="1"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E47" s="1"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F48" s="1"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="6:15" x14ac:dyDescent="0.35">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hand.xlsx
+++ b/hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthieu\Documents\Ecole\TelecomSaintEtienne\FISE2\S8\Bibliotheque_de_developpement\hand-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B4177D-61AC-4FAB-9988-D098A291AE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753F9CE-37FE-4B0E-94AB-240F350C6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{87BC0737-AAFA-4063-9174-5F881CCA0B83}"/>
   </bookViews>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +84,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -97,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -107,6 +119,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94681083-6FB2-4A7A-A80A-27BF6ABD10B2}">
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,15 +454,19 @@
     <col min="41" max="56" width="3.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E2" s="1"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -454,8 +475,12 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -464,8 +489,12 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E4" s="1"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -474,8 +503,12 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -488,8 +521,14 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -504,8 +543,17 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -520,8 +568,19 @@
       <c r="AD7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="1"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -536,8 +595,20 @@
       <c r="AD8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="1"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -552,8 +623,21 @@
       <c r="AD9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AJ9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="11"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -573,8 +657,23 @@
       <c r="AD10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AJ10" s="1"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="11"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -609,8 +708,23 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="1"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="11"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -645,8 +759,24 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="1"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="11"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="5"/>
@@ -679,8 +809,24 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="1"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="11"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5"/>
@@ -713,8 +859,24 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="1"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="11"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
@@ -745,8 +907,24 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="1"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="11"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
@@ -777,8 +955,24 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="1"/>
-    </row>
-    <row r="17" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="11"/>
+    </row>
+    <row r="17" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
@@ -808,8 +1002,23 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="11"/>
+    </row>
+    <row r="18" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
@@ -834,8 +1043,21 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="11"/>
+    </row>
+    <row r="19" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
@@ -858,8 +1080,19 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="1"/>
-    </row>
-    <row r="20" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="11"/>
+    </row>
+    <row r="20" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
@@ -882,8 +1115,19 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="1"/>
-    </row>
-    <row r="21" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="11"/>
+    </row>
+    <row r="21" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F21" s="1"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -904,8 +1148,18 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="1"/>
-    </row>
-    <row r="22" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="11"/>
+    </row>
+    <row r="22" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -926,14 +1180,24 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-    </row>
-    <row r="26" spans="4:35" x14ac:dyDescent="0.35">
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+    </row>
+    <row r="26" spans="4:53" x14ac:dyDescent="0.35">
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="4:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:53" x14ac:dyDescent="0.35">
       <c r="H27" s="1"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -942,7 +1206,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="4:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -953,7 +1217,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="4:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -965,7 +1229,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="4:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E30" s="1"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -977,7 +1241,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="4:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -991,7 +1255,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="4:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E32" s="1"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>

--- a/hand.xlsx
+++ b/hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthieu\Documents\Ecole\TelecomSaintEtienne\FISE2\S8\Bibliotheque_de_developpement\hand-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753F9CE-37FE-4B0E-94AB-240F350C6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0517B28-6845-43C1-A0DD-E69F94385170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{87BC0737-AAFA-4063-9174-5F881CCA0B83}"/>
   </bookViews>
@@ -118,12 +118,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,56 +457,24 @@
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E2" s="1"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="1"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="1"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E4" s="1"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="1"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
@@ -515,16 +483,10 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="11"/>
+      <c r="AS5" s="10"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
     </row>
@@ -536,20 +498,18 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="X6" s="8"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AP6" s="8"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="11"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="10"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
     </row>
@@ -568,16 +528,16 @@
       <c r="AD7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="11"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="10"/>
       <c r="AZ7" s="1"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
@@ -595,17 +555,17 @@
       <c r="AD8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="9"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="8"/>
       <c r="BA8" s="1"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
@@ -623,19 +583,19 @@
       <c r="AD9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="11"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="11"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="11"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="10"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
@@ -645,11 +605,6 @@
       <c r="K10" s="1"/>
       <c r="N10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
@@ -657,21 +612,19 @@
       <c r="AD10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="11"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="10"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -690,11 +643,6 @@
       <c r="O11" s="6"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="4"/>
@@ -708,21 +656,19 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="1"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AP11" s="11"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="11"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="10"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -740,11 +686,6 @@
       <c r="O12" s="6"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="5"/>
@@ -759,22 +700,20 @@
       <c r="AH12" s="6"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="1"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="11"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="10"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -791,10 +730,6 @@
       <c r="O13" s="6"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
       <c r="V13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="5"/>
@@ -809,22 +744,21 @@
       <c r="AH13" s="6"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="1"/>
-      <c r="AM13" s="8"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="11"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="10"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
@@ -841,11 +775,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="8"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="4"/>
@@ -860,21 +790,21 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="11"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="9"/>
-      <c r="AW14" s="9"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="11"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="10"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
@@ -890,11 +820,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="8"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -908,21 +834,20 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="9"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="9"/>
-      <c r="AV15" s="9"/>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="11"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8"/>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8"/>
+      <c r="AV15" s="8"/>
+      <c r="AW15" s="8"/>
+      <c r="AX15" s="8"/>
+      <c r="AY15" s="8"/>
+      <c r="AZ15" s="8"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="10"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
@@ -938,10 +863,6 @@
       <c r="O16" s="6"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
       <c r="V16" s="1"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="4"/>
@@ -955,22 +876,21 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="1"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="9"/>
-      <c r="AQ16" s="9"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="11"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
+      <c r="AX16" s="8"/>
+      <c r="AY16" s="8"/>
+      <c r="AZ16" s="8"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="10"/>
     </row>
     <row r="17" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
@@ -985,11 +905,6 @@
       <c r="N17" s="4"/>
       <c r="O17" s="6"/>
       <c r="P17" s="1"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
       <c r="W17" s="1"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="4"/>
@@ -1002,21 +917,19 @@
       <c r="AG17" s="4"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="1"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
-      <c r="AT17" s="9"/>
-      <c r="AU17" s="9"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="11"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="10"/>
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
@@ -1043,19 +956,19 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="1"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="11"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="8"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="10"/>
     </row>
     <row r="19" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
@@ -1080,17 +993,17 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
       <c r="AH19" s="1"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="9"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="9"/>
-      <c r="AT19" s="9"/>
-      <c r="AU19" s="9"/>
-      <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="11"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="10"/>
     </row>
     <row r="20" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
@@ -1115,17 +1028,17 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
       <c r="AH20" s="1"/>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="9"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="11"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="8"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="10"/>
     </row>
     <row r="21" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F21" s="1"/>
@@ -1148,16 +1061,16 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
       <c r="AH21" s="1"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="11"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="8"/>
+      <c r="AU21" s="8"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="10"/>
     </row>
     <row r="22" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
@@ -1180,53 +1093,39 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
     </row>
     <row r="26" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="4:53" x14ac:dyDescent="0.35">
       <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.35">
@@ -1234,11 +1133,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="4:53" x14ac:dyDescent="0.35">
@@ -1246,11 +1141,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1260,14 +1151,8 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -1275,14 +1160,8 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -1290,14 +1169,8 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -1305,14 +1178,8 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -1321,8 +1188,6 @@
       <c r="G36" s="7"/>
       <c r="H36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
       <c r="N36" s="1"/>
       <c r="Q36" s="1"/>
     </row>

--- a/hand.xlsx
+++ b/hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthieu\Documents\Ecole\TelecomSaintEtienne\FISE2\S8\Bibliotheque_de_developpement\hand-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0517B28-6845-43C1-A0DD-E69F94385170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090B856-E498-4786-8CEE-61509820C0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{87BC0737-AAFA-4063-9174-5F881CCA0B83}"/>
   </bookViews>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -123,7 +123,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +440,7 @@
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+      <selection activeCell="AW16" sqref="AW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,7 +835,7 @@
       <c r="AM15" s="1"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
-      <c r="AQ15" s="11"/>
+      <c r="AQ15" s="8"/>
       <c r="AR15" s="8"/>
       <c r="AS15" s="8"/>
       <c r="AT15" s="8"/>
@@ -1150,7 +1149,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="10"/>
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
       <c r="Q32" s="1"/>
@@ -1159,221 +1158,253 @@
       <c r="E33" s="1"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
       <c r="N33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="10"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="8"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="1"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="1"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="1"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="1"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="1"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C43" s="1"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="1"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="1"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="10"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="1"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="10"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="1"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="1"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F48" s="1"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="1"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="6:15" x14ac:dyDescent="0.35">
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hand.xlsx
+++ b/hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthieu\Documents\Ecole\TelecomSaintEtienne\FISE2\S8\Bibliotheque_de_developpement\hand-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090B856-E498-4786-8CEE-61509820C0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71501CFA-36BD-457E-B2D7-0157AA35FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{87BC0737-AAFA-4063-9174-5F881CCA0B83}"/>
   </bookViews>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +96,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -109,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -123,6 +135,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94681083-6FB2-4A7A-A80A-27BF6ABD10B2}">
-  <dimension ref="A1:BB49"/>
+  <dimension ref="A1:BB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW16" sqref="AW16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD45" sqref="AD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1106,10 +1120,56 @@
     <row r="26" spans="4:53" x14ac:dyDescent="0.35">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
     </row>
     <row r="27" spans="4:53" x14ac:dyDescent="0.35">
       <c r="H27" s="1"/>
       <c r="K27" s="1"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
     </row>
     <row r="28" spans="4:53" x14ac:dyDescent="0.35">
       <c r="F28" s="1"/>
@@ -1118,6 +1178,29 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
     </row>
     <row r="29" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E29" s="1"/>
@@ -1126,6 +1209,29 @@
       <c r="H29" s="1"/>
       <c r="K29" s="1"/>
       <c r="N29" s="1"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
     </row>
     <row r="30" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E30" s="1"/>
@@ -1134,6 +1240,29 @@
       <c r="H30" s="1"/>
       <c r="K30" s="1"/>
       <c r="N30" s="1"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
     </row>
     <row r="31" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E31" s="1"/>
@@ -1144,6 +1273,29 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
     </row>
     <row r="32" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E32" s="1"/>
@@ -1153,8 +1305,31 @@
       <c r="K32" s="1"/>
       <c r="N32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E33" s="1"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1164,8 +1339,31 @@
       <c r="K33" s="10"/>
       <c r="N33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E34" s="10"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1177,8 +1375,31 @@
       <c r="M34" s="8"/>
       <c r="N34" s="10"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E35" s="10"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1191,8 +1412,31 @@
       <c r="N35" s="10"/>
       <c r="O35" s="8"/>
       <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -1206,8 +1450,31 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E37" s="10"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1221,8 +1488,31 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1239,8 +1529,31 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -1256,8 +1569,31 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
@@ -1273,8 +1609,31 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1291,8 +1650,31 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1308,8 +1690,31 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C43" s="10"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1325,8 +1730,31 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="D44" s="10"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -1340,8 +1768,31 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="10"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="D45" s="10"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -1355,8 +1806,31 @@
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="10"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E46" s="10"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -1368,8 +1842,31 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="10"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="E47" s="10"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -1381,8 +1878,31 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
       <c r="O47" s="10"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="F48" s="10"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -1393,8 +1913,31 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
       <c r="O48" s="10"/>
-    </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.35">
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+    </row>
+    <row r="49" spans="6:47" x14ac:dyDescent="0.35">
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -1405,6 +1948,179 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+    </row>
+    <row r="50" spans="6:47" x14ac:dyDescent="0.35">
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+    </row>
+    <row r="51" spans="6:47" x14ac:dyDescent="0.35">
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+    </row>
+    <row r="52" spans="6:47" x14ac:dyDescent="0.35">
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+    </row>
+    <row r="53" spans="6:47" x14ac:dyDescent="0.35">
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+    </row>
+    <row r="54" spans="6:47" x14ac:dyDescent="0.35">
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+    </row>
+    <row r="55" spans="6:47" x14ac:dyDescent="0.35">
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hand.xlsx
+++ b/hand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthieu\Documents\Ecole\TelecomSaintEtienne\FISE2\S8\Bibliotheque_de_developpement\hand-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71501CFA-36BD-457E-B2D7-0157AA35FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A738D03-589D-4BC5-BCB9-663B91E2DB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{87BC0737-AAFA-4063-9174-5F881CCA0B83}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -137,6 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94681083-6FB2-4A7A-A80A-27BF6ABD10B2}">
   <dimension ref="A1:BB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD45" sqref="AD45"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,29 +471,65 @@
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E2" s="1"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E4" s="1"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -505,9 +542,11 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -528,10 +567,14 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="X7" s="1"/>
@@ -555,11 +598,16 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="7"/>
@@ -583,11 +631,17 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="7"/>
@@ -612,11 +666,17 @@
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="1"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="7"/>
@@ -644,7 +704,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -653,8 +713,8 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="5"/>
@@ -685,9 +745,11 @@
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -696,8 +758,8 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -730,8 +792,11 @@
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -740,8 +805,8 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
       <c r="V13" s="1"/>
       <c r="X13" s="1"/>
@@ -775,18 +840,20 @@
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
       <c r="U14" s="1"/>
       <c r="X14" s="1"/>
@@ -821,7 +888,9 @@
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -830,8 +899,8 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="1"/>
       <c r="U15" s="1"/>
       <c r="Y15" s="5"/>
@@ -864,7 +933,9 @@
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -873,8 +944,8 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="2"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="1"/>
       <c r="V16" s="1"/>
       <c r="Y16" s="5"/>
@@ -907,7 +978,8 @@
     </row>
     <row r="17" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -916,8 +988,9 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="1"/>
+      <c r="Q17" s="13"/>
       <c r="W17" s="1"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="4"/>
@@ -946,7 +1019,8 @@
     </row>
     <row r="18" spans="4:53" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -955,8 +1029,9 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="1"/>
+      <c r="Q18" s="13"/>
       <c r="W18" s="1"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="4"/>
@@ -985,7 +1060,7 @@
     </row>
     <row r="19" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -995,6 +1070,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="1"/>
+      <c r="Q19" s="13"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="4"/>
@@ -1020,7 +1096,7 @@
     </row>
     <row r="20" spans="4:53" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1030,6 +1106,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
+      <c r="Q20" s="13"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="4"/>
@@ -1064,6 +1141,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="1"/>
+      <c r="Q21" s="13"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
@@ -1096,6 +1174,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
+      <c r="Q22" s="13"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -2124,5 +2203,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>